--- a/tabla.xlsx
+++ b/tabla.xlsx
@@ -59,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,12 +93,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -411,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +458,34 @@
         <v>3</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
